--- a/data/trans_camb/P07_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>12.3405026449749</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.19714731607095</v>
+        <v>6.197147316070961</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.53489663258682</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.4723141547116</v>
+        <v>3.467524379743922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.027417957551548</v>
+        <v>3.422362492400452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.469712590317594</v>
+        <v>-7.230315141541135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.326987171486684</v>
+        <v>3.332005373633465</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.621018079274545</v>
+        <v>7.895069310145736</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.322278196778247</v>
+        <v>1.280404720417234</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.141085094663202</v>
+        <v>6.425978761218548</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.50833854217862</v>
+        <v>8.29670844083334</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0653642820218485</v>
+        <v>-0.1154990962433886</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.46666959412657</v>
+        <v>12.64759915551016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.25148277892668</v>
+        <v>12.50032014562948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.752729645547517</v>
+        <v>4.174495933906686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.14268537821605</v>
+        <v>12.24886511641564</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.69056057817666</v>
+        <v>16.56371319861974</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.07161972101976</v>
+        <v>10.65880384610026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.51894559228543</v>
+        <v>12.93862255376726</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.82570620585701</v>
+        <v>14.42111425528101</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.296928214153183</v>
+        <v>7.113053462091484</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2197315918605242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1103446985855911</v>
+        <v>0.1103446985855912</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.154404448243527</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04693857305027123</v>
+        <v>0.04738812955509211</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04381037988886941</v>
+        <v>0.04679739901453165</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.102117160414817</v>
+        <v>-0.09925306556829351</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05621993759712875</v>
+        <v>0.05629024354718115</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1293328340524312</v>
+        <v>0.1337431851269051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02311324220407682</v>
+        <v>0.02112043014689755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09584092414680781</v>
+        <v>0.1005805326330451</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1331116251701927</v>
+        <v>0.1307934757745471</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.002031430222032728</v>
+        <v>-0.00101071519133868</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1838149827290041</v>
+        <v>0.1876216452884917</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1837452104279807</v>
+        <v>0.1867757397561522</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05628691947449986</v>
+        <v>0.06259920872258773</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2243536979213865</v>
+        <v>0.2285183479066389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3111119366171619</v>
+        <v>0.3062490250880909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2070993541768079</v>
+        <v>0.1970371035787459</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2095614916576643</v>
+        <v>0.2169811472984675</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.247426053428635</v>
+        <v>0.2440971450625392</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1214774254102568</v>
+        <v>0.1186747667757779</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.072572420606258</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.974001409099224</v>
+        <v>-1.974001409099235</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.131565509781651</v>
@@ -878,7 +878,7 @@
         <v>2.733997494062124</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.651511720113687</v>
+        <v>-3.651511720113709</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.413054104234833</v>
+        <v>-4.173710232152388</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.371380858647824</v>
+        <v>-2.239324684186042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.829073089158268</v>
+        <v>-8.350993318267406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.76461432607934</v>
+        <v>-4.567076602985979</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.139965049076201</v>
+        <v>0.9640344511162158</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.600171755530035</v>
+        <v>-5.555704629850325</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.65827748181164</v>
+        <v>-3.665964235467763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2033231963728268</v>
+        <v>-0.2592139214466352</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.889075599985257</v>
+        <v>-6.289175829959397</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.170966260263172</v>
+        <v>2.423573714302692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.97406797614242</v>
+        <v>4.018430747699122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.235827740573963</v>
+        <v>-1.401029240563417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.074247204129225</v>
+        <v>3.240205617512646</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.992879723999664</v>
+        <v>8.677297747106365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.545897973235295</v>
+        <v>1.6752011084286</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.353951971270238</v>
+        <v>1.585728833478981</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.979974767926962</v>
+        <v>5.01321488548209</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.186006064735394</v>
+        <v>-1.267328666017924</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.06862271227540183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.02670466175654204</v>
+        <v>-0.02670466175654219</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01422618326424578</v>
@@ -983,7 +983,7 @@
         <v>0.03437215879973365</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.04590726252508566</v>
+        <v>-0.04590726252508594</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05080126203221709</v>
+        <v>-0.04818483933614054</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02728310817182196</v>
+        <v>-0.02565961489280032</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09165255900191628</v>
+        <v>-0.0960661744642773</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06250683021830404</v>
+        <v>-0.06097231317090235</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01461858978999722</v>
+        <v>0.01294054203839366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07316397162123449</v>
+        <v>-0.07307740833867586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04548082948689788</v>
+        <v>-0.04532202351390792</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002519486107479312</v>
+        <v>-0.003123661556843793</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07311701965186419</v>
+        <v>-0.07858025960166727</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02607499653939295</v>
+        <v>0.02935691477497979</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04755586336591805</v>
+        <v>0.04760310107593137</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01497028100082164</v>
+        <v>-0.01677998523680956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04270225090081731</v>
+        <v>0.04524671650927693</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1256228135664726</v>
+        <v>0.1211976968273021</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02150782053303128</v>
+        <v>0.02338899800760809</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01727918083176911</v>
+        <v>0.02054581282009497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06383753915625708</v>
+        <v>0.06378832647057305</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01517008932787875</v>
+        <v>-0.01635188680467096</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7436733218165514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.63031797697223</v>
+        <v>-2.630317976972218</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.519106924464675</v>
@@ -1092,7 +1092,7 @@
         <v>0.2526896280587443</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.383022083796148</v>
+        <v>-1.383022083796137</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.998091711675644</v>
+        <v>-7.473974494905655</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.585717425336089</v>
+        <v>-3.738030542523405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.352795349872371</v>
+        <v>-5.565927643337236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.301623123489148</v>
+        <v>-2.558226687631889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.279497695979749</v>
+        <v>-1.99694313222946</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.880725832179886</v>
+        <v>-2.527306472391552</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.822189475588501</v>
+        <v>-4.193643814312032</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.062962490958691</v>
+        <v>-2.042974992082768</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.569670082556606</v>
+        <v>-3.373655182050989</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.046514023059715</v>
+        <v>-0.8733198783083871</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.080020928632477</v>
+        <v>2.313710559359893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1076765650499209</v>
+        <v>0.2348793734583182</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.669994101930035</v>
+        <v>5.168876030332263</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.736228943805932</v>
+        <v>5.834183416994461</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.643320413058957</v>
+        <v>3.865866469157794</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.014253425603687</v>
+        <v>0.9449878309162898</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.80934908668398</v>
+        <v>2.877910719031201</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7140220980232694</v>
+        <v>0.8364403753301066</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.008353597671876536</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02954606207340916</v>
+        <v>-0.02954606207340904</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.01924969375874701</v>
@@ -1197,7 +1197,7 @@
         <v>0.002998390573983502</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.01641080566512746</v>
+        <v>-0.01641080566512733</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07814815094792128</v>
+        <v>-0.08321622592476181</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03987763828751836</v>
+        <v>-0.04141686314967299</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05932415722438</v>
+        <v>-0.06164703627586958</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02831778669596744</v>
+        <v>-0.03148877841461786</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02812558244693438</v>
+        <v>-0.0243158259572764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03573917957360524</v>
+        <v>-0.0311713164529978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04508425940349633</v>
+        <v>-0.04947101110499951</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02456320096433359</v>
+        <v>-0.02399165291979563</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04175924339030132</v>
+        <v>-0.03959285636327588</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01215160046394646</v>
+        <v>-0.009902241171517428</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02381256118646209</v>
+        <v>0.02625215053171563</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.000799212688713788</v>
+        <v>0.002355576922242112</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07434337361682186</v>
+        <v>0.06850692112683811</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07442690204996696</v>
+        <v>0.07445880243424675</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04694830092360257</v>
+        <v>0.05018930540723132</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01193112959222163</v>
+        <v>0.01122895978597948</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.033721924934076</v>
+        <v>0.03468500947961917</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.008666127725563952</v>
+        <v>0.01009938673189603</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.688984834967078</v>
+        <v>-7.172528476068518</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.566098854304621</v>
+        <v>-6.148423355648191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.862819488083361</v>
+        <v>-6.353271847640983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.956525452507648</v>
+        <v>-8.755323460053875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.59921672185834</v>
+        <v>-7.159877414130021</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.381788795108035</v>
+        <v>-4.223863680787584</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.864932028100752</v>
+        <v>-6.753261452171834</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.000527638259359</v>
+        <v>-5.777107604752574</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.356395690818223</v>
+        <v>-4.451614632137687</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.351962889557742</v>
+        <v>1.539757409738281</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.615261359492304</v>
+        <v>1.79501276132029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8355340240405889</v>
+        <v>0.7020874677851218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.806045944122511</v>
+        <v>2.135073537407887</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.728497883191933</v>
+        <v>3.248291376469358</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.144863479948848</v>
+        <v>4.088907641507497</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.01326205314641406</v>
+        <v>-0.2725940138452441</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6808144754758726</v>
+        <v>0.7892154973219113</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9160967706062475</v>
+        <v>0.8593626185153133</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07246126888017893</v>
+        <v>-0.07770987284942463</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07121491450964487</v>
+        <v>-0.0664451868611115</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0633711977217306</v>
+        <v>-0.06894747292705565</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1012956003532325</v>
+        <v>-0.09948813267400158</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08662999501167991</v>
+        <v>-0.0810407525705875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04991472489732241</v>
+        <v>-0.04773380765551742</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07582153555588862</v>
+        <v>-0.07571602055909178</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06655885224175768</v>
+        <v>-0.06399100884258685</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04824858905392305</v>
+        <v>-0.04952336779316666</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01537616851605852</v>
+        <v>0.01754359181334404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01819471661059027</v>
+        <v>0.02033783283225227</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01112846777552057</v>
+        <v>0.008292467469572512</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.02173504633695201</v>
+        <v>0.02583702138927741</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03285315443562714</v>
+        <v>0.03935874003255025</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05034244833591257</v>
+        <v>0.05023249456920577</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-8.651298299266725e-05</v>
+        <v>-0.00329154713924324</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.008191531435566999</v>
+        <v>0.0097008599394396</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01063954888125131</v>
+        <v>0.009914113479844716</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>2.114616268889302</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.017789896823251</v>
+        <v>1.017789896823262</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.208427405175643</v>
+        <v>-3.019765968403818</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.040426010000282</v>
+        <v>-1.952681776029802</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.762437187524043</v>
+        <v>-3.595026506059038</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5255505101772324</v>
+        <v>-0.7530610102594574</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.190278729872686</v>
+        <v>2.324577989350053</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.101222477322786</v>
+        <v>2.184575871957357</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.432573148138053</v>
+        <v>-1.261262930146266</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7084739484757011</v>
+        <v>0.6201035188345512</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2873712344319603</v>
+        <v>-0.2297916925222501</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.652302111458092</v>
+        <v>0.7442606796727868</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.563744454550406</v>
+        <v>1.615529125825726</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1631624630201918</v>
+        <v>-0.0572192235911063</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.820924395425468</v>
+        <v>3.910103195030791</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.498576471436405</v>
+        <v>6.563666473376006</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.080589732587818</v>
+        <v>6.153145917463427</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.566620719024649</v>
+        <v>1.646049125687692</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.602453307688971</v>
+        <v>3.414105468936201</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.458803452149143</v>
+        <v>2.357221585969765</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.02710008613187726</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.01304359295530818</v>
+        <v>0.01304359295530833</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03769533436328989</v>
+        <v>-0.03614419313505034</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02394840337586052</v>
+        <v>-0.02279891969355161</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0438605198885125</v>
+        <v>-0.04191067880144685</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.007459425857461387</v>
+        <v>-0.01018665232722577</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03031075280349163</v>
+        <v>0.03198608049695119</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02880324592046387</v>
+        <v>0.03007890862757884</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01812365967489032</v>
+        <v>-0.0159470688937611</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.009036298565798325</v>
+        <v>0.007748614805672858</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.003625485140410754</v>
+        <v>-0.003040481536760037</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.007818523767773124</v>
+        <v>0.008737537481287319</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01874084946873666</v>
+        <v>0.0194738536296763</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.002000998522498549</v>
+        <v>-0.0007716497007881206</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05353774144931204</v>
+        <v>0.05580879597585411</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09184285962330536</v>
+        <v>0.09378391347849391</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08607740980390471</v>
+        <v>0.08756413268534102</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02031081695561349</v>
+        <v>0.02119320931956535</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04699930722069885</v>
+        <v>0.04414682416252925</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03182444750940527</v>
+        <v>0.0305805538896625</v>
       </c>
     </row>
     <row r="34">
